--- a/biology/Botanique/Albert_Ernest_Radford/Albert_Ernest_Radford.xlsx
+++ b/biology/Botanique/Albert_Ernest_Radford/Albert_Ernest_Radford.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Ernest Radford est un botaniste américain, né le 25 janvier 1918 à Augusta (Géorgie) et mort le 12 avril 2006 à Columbia, Missouri.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'aîné des neuf enfants d’Albert Radford et d’Eloise née Moseley. Il fait ses études au College d’Augusta où il s’oriente tout d’abord vers les mathématiques, mais l’influence d’un de ses professeurs, Albert Sumner Ives le conduit à s’intéresser à la botanique. Il étudie à l’Université Furman (Bachelor of Sciences en 1939) puis à l’Université de Caroline du Nord, où il est recruté par William Chambers Coker (1872-1953). Outre Coker, il est dirigé également par Henry Roland Totten (1892-1974). Il sert dans le 51e bataillon d’ingénieur de combat durant la Seconde Guerre mondiale et est engagé en Afrique du Nord et Europe, notamment dans la Bataille des Ardennes.
 Il se marie en 1941 avec Laurie Steward Radford (1910-2004), conservatrice à l’herbier de l’université, union dont sont issus trois enfants, David, John et Linda. Albert Radford enseigne la botanique à l’université de Caroline du Nord (UNC), Chaptel Hill, durant quarante ans et dirige l’herbier de l’université pendant vingt-trois ans. Il obtient son Ph. D. en botanique en 1948 avec une thèse intitulée The Vascular Flora of the Olivine Deposits of North Carolina and Georgia. Il s’intéresse aux relations entre le sol, les minéraux et les roches qui le constituent, et la distribution des végétaux. Il est instructeur de 1946 à 1949, professeur assistant de 1949 à 1953, professeur associé de 1953 à 1958, professeur de 1958 à 1987 et, finalement, professeur émérite de 1987 à 2006. Il organise de nombreuses sorties sur le terrain pour ses étudiants. Celles-ci sont de durée variable et Radford avertit ses étudiants que s’ils ont peur des serpents, des moustiques ou de l’eau, il vaut mieux qu’ils renoncent. Outre plusieurs manuels pédagogiques, il dirige 42 masters et 20 thèses en botanique.
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Avec Harry E. Ahles (1924-1981) et C. Ritchie Bell (1921-), Manual of the Vascular Flora of the Carolinas. Chapel Hill, Caroline du Nord : University of North Carolina Press.  (ISBN 0-8078-1087-8).
 Vascular Plant Systematics (1974). New York : Harper and Row.
@@ -580,7 +596,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>William R. Burk et Alan S. Weakley (2006). Albert E. Radford—A Tribute. Castanea, 71 : 179-185.</t>
         </is>
